--- a/doc/thesis/pictures/resultate/loesung1/loesung1-4/resultate_1_4.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-4/resultate_1_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Helper lines</t>
   </si>
   <si>
-    <t>Lösung 0</t>
-  </si>
-  <si>
     <t>Max error</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Ableitung+PCA+DCT</t>
+  </si>
+  <si>
+    <t>A. Subsampling</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lösung 0</c:v>
+                  <c:v>A. Subsampling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -469,11 +469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353381208"/>
-        <c:axId val="357358624"/>
+        <c:axId val="268311008"/>
+        <c:axId val="268314144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353381208"/>
+        <c:axId val="268311008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -596,12 +596,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357358624"/>
+        <c:crossAx val="268314144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357358624"/>
+        <c:axId val="268314144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +714,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353381208"/>
+        <c:crossAx val="268311008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1708,43 +1708,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>78.371583330000007</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>74.187416666666707</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>5802771.0418897802</v>
@@ -1808,7 +1808,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>73.060333330000006</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>69.059083330000007</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>4868640.6526112799</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>65.945750000000004</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>5312576.9486709302</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>62.968416670000003</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>5757110.6414862201</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60.366333330000003</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>6201678.84946445</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>58.345916670000001</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>6598973.8544339798</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>56.53533333</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung1/loesung1-4/resultate_1_4.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-4/resultate_1_4.xlsx
@@ -469,11 +469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268311008"/>
-        <c:axId val="268314144"/>
+        <c:axId val="241668528"/>
+        <c:axId val="241663432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268311008"/>
+        <c:axId val="241668528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -503,10 +503,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -514,16 +511,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -545,10 +554,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -583,10 +589,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -596,12 +599,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268314144"/>
+        <c:crossAx val="241663432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268314144"/>
+        <c:axId val="241663432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,10 +633,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -641,8 +641,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -663,10 +667,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -701,10 +702,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -714,41 +712,11 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268311008"/>
+        <c:crossAx val="241668528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -777,10 +745,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1708,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/thesis/pictures/resultate/loesung1/loesung1-4/resultate_1_4.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-4/resultate_1_4.xlsx
@@ -469,14 +469,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241668528"/>
-        <c:axId val="241663432"/>
+        <c:axId val="261310216"/>
+        <c:axId val="261311392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241668528"/>
+        <c:axId val="261310216"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -599,12 +600,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241663432"/>
+        <c:crossAx val="261311392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241663432"/>
+        <c:axId val="261311392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +713,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241668528"/>
+        <c:crossAx val="261310216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -788,7 +789,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1674,7 +1675,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
